--- a/Study 3/Shocks/GCAM/NDC_EI - 2060.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2060.xlsx
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.08795766786871227</v>
+        <v>0.08795766786871226</v>
       </c>
     </row>
     <row r="4">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.009845075319520512</v>
+        <v>0.009845075319520511</v>
       </c>
     </row>
     <row r="8">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.06641682038778787</v>
+        <v>0.06641682038778786</v>
       </c>
     </row>
     <row r="20">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.03756492362825637</v>
+        <v>0.03756492362825638</v>
       </c>
     </row>
     <row r="22">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.003045870566148534</v>
+        <v>0.003045870566148533</v>
       </c>
     </row>
     <row r="28">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.006613238210887768</v>
+        <v>0.006613238210887766</v>
       </c>
     </row>
     <row r="32">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.01772606786184047</v>
+        <v>0.01772606786184048</v>
       </c>
     </row>
     <row r="34">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.4097664461450036</v>
+        <v>0.4097664461450035</v>
       </c>
     </row>
     <row r="40">
